--- a/src/main/resources/default/defaultToken.xlsx
+++ b/src/main/resources/default/defaultToken.xlsx
@@ -95,7 +95,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C81"/>
+  <dimension ref="A1:C80"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -924,7 +924,7 @@
       </c>
       <c r="C55" s="2" t="inlineStr">
         <is>
-          <t>:</t>
+          <t>:=</t>
         </is>
       </c>
     </row>
@@ -934,12 +934,12 @@
       </c>
       <c r="B56" s="2" t="inlineStr">
         <is>
-          <t>EQUAL</t>
+          <t>SPACE</t>
         </is>
       </c>
       <c r="C56" s="2" t="inlineStr">
         <is>
-          <t>=</t>
+          <t>空格</t>
         </is>
       </c>
     </row>
@@ -949,12 +949,12 @@
       </c>
       <c r="B57" s="2" t="inlineStr">
         <is>
-          <t>SPACE</t>
+          <t>IDENTIFIER</t>
         </is>
       </c>
       <c r="C57" s="2" t="inlineStr">
         <is>
-          <t>空格</t>
+          <t>v1</t>
         </is>
       </c>
     </row>
@@ -964,12 +964,12 @@
       </c>
       <c r="B58" s="2" t="inlineStr">
         <is>
-          <t>IDENTIFIER</t>
+          <t>SPACE</t>
         </is>
       </c>
       <c r="C58" s="2" t="inlineStr">
         <is>
-          <t>v1</t>
+          <t>空格</t>
         </is>
       </c>
     </row>
@@ -979,12 +979,12 @@
       </c>
       <c r="B59" s="2" t="inlineStr">
         <is>
-          <t>SPACE</t>
+          <t>PLUS</t>
         </is>
       </c>
       <c r="C59" s="2" t="inlineStr">
         <is>
-          <t>空格</t>
+          <t>+</t>
         </is>
       </c>
     </row>
@@ -994,12 +994,12 @@
       </c>
       <c r="B60" s="2" t="inlineStr">
         <is>
-          <t>PLUS</t>
+          <t>SPACE</t>
         </is>
       </c>
       <c r="C60" s="2" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>空格</t>
         </is>
       </c>
     </row>
@@ -1009,12 +1009,12 @@
       </c>
       <c r="B61" s="2" t="inlineStr">
         <is>
-          <t>SPACE</t>
+          <t>UNSIGNED_INTEGER</t>
         </is>
       </c>
       <c r="C61" s="2" t="inlineStr">
         <is>
-          <t>空格</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -1024,27 +1024,27 @@
       </c>
       <c r="B62" s="2" t="inlineStr">
         <is>
-          <t>UNSIGNED_INTEGER</t>
+          <t>SEMICOLON</t>
         </is>
       </c>
       <c r="C62" s="2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>;</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="B63" s="2" t="inlineStr">
         <is>
-          <t>SEMICOLON</t>
+          <t>NEW_LINE</t>
         </is>
       </c>
       <c r="C63" s="2" t="inlineStr">
         <is>
-          <t>;</t>
+          <t>\n</t>
         </is>
       </c>
     </row>
@@ -1054,12 +1054,12 @@
       </c>
       <c r="B64" s="2" t="inlineStr">
         <is>
-          <t>NEW_LINE</t>
+          <t>SPACE</t>
         </is>
       </c>
       <c r="C64" s="2" t="inlineStr">
         <is>
-          <t>\n</t>
+          <t>空格</t>
         </is>
       </c>
     </row>
@@ -1114,27 +1114,27 @@
       </c>
       <c r="B68" s="2" t="inlineStr">
         <is>
-          <t>SPACE</t>
+          <t>COMMENT</t>
         </is>
       </c>
       <c r="C68" s="2" t="inlineStr">
         <is>
-          <t>空格</t>
+          <t>{write('a'')}</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="B69" s="2" t="inlineStr">
         <is>
-          <t>COMMENT</t>
+          <t>NEW_LINE</t>
         </is>
       </c>
       <c r="C69" s="2" t="inlineStr">
         <is>
-          <t>{write('a'')}</t>
+          <t>\n</t>
         </is>
       </c>
     </row>
@@ -1144,12 +1144,12 @@
       </c>
       <c r="B70" s="2" t="inlineStr">
         <is>
-          <t>NEW_LINE</t>
+          <t>SPACE</t>
         </is>
       </c>
       <c r="C70" s="2" t="inlineStr">
         <is>
-          <t>\n</t>
+          <t>空格</t>
         </is>
       </c>
     </row>
@@ -1204,12 +1204,12 @@
       </c>
       <c r="B74" s="2" t="inlineStr">
         <is>
-          <t>SPACE</t>
+          <t>WORD/WRITE</t>
         </is>
       </c>
       <c r="C74" s="2" t="inlineStr">
         <is>
-          <t>空格</t>
+          <t>write</t>
         </is>
       </c>
     </row>
@@ -1219,12 +1219,12 @@
       </c>
       <c r="B75" s="2" t="inlineStr">
         <is>
-          <t>WORD/WRITE</t>
+          <t>L_PARENTHESIS</t>
         </is>
       </c>
       <c r="C75" s="2" t="inlineStr">
         <is>
-          <t>write</t>
+          <t>(</t>
         </is>
       </c>
     </row>
@@ -1234,12 +1234,12 @@
       </c>
       <c r="B76" s="2" t="inlineStr">
         <is>
-          <t>L_PARENTHESIS</t>
+          <t>IDENTIFIER</t>
         </is>
       </c>
       <c r="C76" s="2" t="inlineStr">
         <is>
-          <t>(</t>
+          <t>v1</t>
         </is>
       </c>
     </row>
@@ -1249,27 +1249,27 @@
       </c>
       <c r="B77" s="2" t="inlineStr">
         <is>
-          <t>IDENTIFIER</t>
+          <t>R_PARENTHESIS</t>
         </is>
       </c>
       <c r="C77" s="2" t="inlineStr">
         <is>
-          <t>v1</t>
+          <t>)</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="B78" s="2" t="inlineStr">
         <is>
-          <t>R_PARENTHESIS</t>
+          <t>NEW_LINE</t>
         </is>
       </c>
       <c r="C78" s="2" t="inlineStr">
         <is>
-          <t>)</t>
+          <t>\n</t>
         </is>
       </c>
     </row>
@@ -1279,12 +1279,12 @@
       </c>
       <c r="B79" s="2" t="inlineStr">
         <is>
-          <t>NEW_LINE</t>
+          <t>WORD/END</t>
         </is>
       </c>
       <c r="C79" s="2" t="inlineStr">
         <is>
-          <t>\n</t>
+          <t>end</t>
         </is>
       </c>
     </row>
@@ -1294,25 +1294,10 @@
       </c>
       <c r="B80" s="2" t="inlineStr">
         <is>
-          <t>WORD/END</t>
+          <t>PROGRAMEND</t>
         </is>
       </c>
       <c r="C80" s="2" t="inlineStr">
-        <is>
-          <t>end</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="2" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="B81" s="2" t="inlineStr">
-        <is>
-          <t>PROGRAMEND</t>
-        </is>
-      </c>
-      <c r="C81" s="2" t="inlineStr">
         <is>
           <t>.</t>
         </is>

--- a/src/main/resources/default/defaultToken.xlsx
+++ b/src/main/resources/default/defaultToken.xlsx
@@ -36,7 +36,7 @@
       <sz val="11.0"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -49,6 +49,61 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="11"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="52"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="60"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="27"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="31"/>
       </patternFill>
     </fill>
   </fills>
@@ -82,20 +137,100 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" wrapText="true" vertical="center"/>
       <protection locked="true"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C80"/>
+  <dimension ref="A1:C81"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -119,1185 +254,1200 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="3" t="n">
         <v>1.0</v>
       </c>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="B2" s="3" t="inlineStr">
         <is>
           <t>COMMENT</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="C2" s="3" t="inlineStr">
         <is>
           <t>{传说中的注释}</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="4" t="n">
         <v>2.0</v>
       </c>
-      <c r="B3" s="2" t="inlineStr">
-        <is>
-          <t>NEW_LINE</t>
-        </is>
-      </c>
-      <c r="C3" s="2" t="inlineStr">
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>WHITESPACE/NEW_LINE</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
         <is>
           <t>\n</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="5" t="n">
         <v>2.0</v>
       </c>
-      <c r="B4" s="2" t="inlineStr">
+      <c r="B4" s="5" t="inlineStr">
         <is>
           <t>WORD/PROGRAM</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
+      <c r="C4" s="5" t="inlineStr">
         <is>
           <t>program</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="6" t="n">
         <v>2.0</v>
       </c>
-      <c r="B5" s="2" t="inlineStr">
-        <is>
-          <t>SPACE</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
+      <c r="B5" s="6" t="inlineStr">
+        <is>
+          <t>WHITESPACE/SPACE</t>
+        </is>
+      </c>
+      <c r="C5" s="6" t="inlineStr">
         <is>
           <t>空格</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="7" t="n">
         <v>3.0</v>
       </c>
-      <c r="B6" s="2" t="inlineStr">
+      <c r="B6" s="7" t="inlineStr">
         <is>
           <t>IDENTIFIER</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
+      <c r="C6" s="7" t="inlineStr">
         <is>
           <t>p</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="8" t="n">
         <v>3.0</v>
       </c>
-      <c r="B7" s="2" t="inlineStr">
-        <is>
-          <t>NEW_LINE</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
+      <c r="B7" s="8" t="inlineStr">
+        <is>
+          <t>WHITESPACE/NEW_LINE</t>
+        </is>
+      </c>
+      <c r="C7" s="8" t="inlineStr">
         <is>
           <t>\n</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="n">
+      <c r="A8" s="9" t="n">
         <v>3.0</v>
       </c>
-      <c r="B8" s="2" t="inlineStr">
+      <c r="B8" s="9" t="inlineStr">
         <is>
           <t>WORD/TYPE</t>
         </is>
       </c>
-      <c r="C8" s="2" t="inlineStr">
+      <c r="C8" s="9" t="inlineStr">
         <is>
           <t>type</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="n">
+      <c r="A9" s="10" t="n">
         <v>3.0</v>
       </c>
-      <c r="B9" s="2" t="inlineStr">
-        <is>
-          <t>SPACE</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
+      <c r="B9" s="10" t="inlineStr">
+        <is>
+          <t>WHITESPACE/SPACE</t>
+        </is>
+      </c>
+      <c r="C9" s="10" t="inlineStr">
         <is>
           <t>空格</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="n">
+      <c r="A10" s="11" t="n">
         <v>3.0</v>
       </c>
-      <c r="B10" s="2" t="inlineStr">
+      <c r="B10" s="11" t="inlineStr">
         <is>
           <t>IDENTIFIER</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
+      <c r="C10" s="11" t="inlineStr">
         <is>
           <t>t</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="n">
+      <c r="A11" s="12" t="n">
         <v>3.0</v>
       </c>
-      <c r="B11" s="2" t="inlineStr">
-        <is>
-          <t>SPACE</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
+      <c r="B11" s="12" t="inlineStr">
+        <is>
+          <t>WHITESPACE/SPACE</t>
+        </is>
+      </c>
+      <c r="C11" s="12" t="inlineStr">
         <is>
           <t>空格</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="n">
+      <c r="A12" s="13" t="n">
         <v>3.0</v>
       </c>
-      <c r="B12" s="2" t="inlineStr">
-        <is>
-          <t>EQUAL</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
+      <c r="B12" s="13" t="inlineStr">
+        <is>
+          <t>OPERATOR/EQUAL</t>
+        </is>
+      </c>
+      <c r="C12" s="13" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="n">
+      <c r="A13" s="14" t="n">
         <v>3.0</v>
       </c>
-      <c r="B13" s="2" t="inlineStr">
-        <is>
-          <t>SPACE</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
+      <c r="B13" s="14" t="inlineStr">
+        <is>
+          <t>WHITESPACE/SPACE</t>
+        </is>
+      </c>
+      <c r="C13" s="14" t="inlineStr">
         <is>
           <t>空格</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="n">
+      <c r="A14" s="15" t="n">
         <v>3.0</v>
       </c>
-      <c r="B14" s="2" t="inlineStr">
+      <c r="B14" s="15" t="inlineStr">
         <is>
           <t>DATATYPE/INTEGER</t>
         </is>
       </c>
-      <c r="C14" s="2" t="inlineStr">
+      <c r="C14" s="15" t="inlineStr">
         <is>
           <t>integer</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="n">
+      <c r="A15" s="16" t="n">
         <v>3.0</v>
       </c>
-      <c r="B15" s="2" t="inlineStr">
-        <is>
-          <t>SEMICOLON</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
+      <c r="B15" s="16" t="inlineStr">
+        <is>
+          <t>ENDDELIMITER/SEMICOLON</t>
+        </is>
+      </c>
+      <c r="C15" s="16" t="inlineStr">
         <is>
           <t>;</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="n">
+      <c r="A16" s="17" t="n">
         <v>4.0</v>
       </c>
-      <c r="B16" s="2" t="inlineStr">
-        <is>
-          <t>NEW_LINE</t>
-        </is>
-      </c>
-      <c r="C16" s="2" t="inlineStr">
+      <c r="B16" s="17" t="inlineStr">
+        <is>
+          <t>WHITESPACE/NEW_LINE</t>
+        </is>
+      </c>
+      <c r="C16" s="17" t="inlineStr">
         <is>
           <t>\n</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="n">
+      <c r="A17" s="18" t="n">
         <v>4.0</v>
       </c>
-      <c r="B17" s="2" t="inlineStr">
-        <is>
-          <t>SPACE</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
+      <c r="B17" s="18" t="inlineStr">
+        <is>
+          <t>WHITESPACE/SPACE</t>
+        </is>
+      </c>
+      <c r="C17" s="18" t="inlineStr">
         <is>
           <t>空格</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="n">
+      <c r="A18" s="19" t="n">
         <v>4.0</v>
       </c>
-      <c r="B18" s="2" t="inlineStr">
-        <is>
-          <t>SPACE</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
+      <c r="B18" s="19" t="inlineStr">
+        <is>
+          <t>WHITESPACE/SPACE</t>
+        </is>
+      </c>
+      <c r="C18" s="19" t="inlineStr">
         <is>
           <t>空格</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="n">
+      <c r="A19" s="20" t="n">
         <v>4.0</v>
       </c>
-      <c r="B19" s="2" t="inlineStr">
-        <is>
-          <t>SPACE</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
+      <c r="B19" s="20" t="inlineStr">
+        <is>
+          <t>WHITESPACE/SPACE</t>
+        </is>
+      </c>
+      <c r="C19" s="20" t="inlineStr">
         <is>
           <t>空格</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="n">
+      <c r="A20" s="21" t="n">
         <v>4.0</v>
       </c>
-      <c r="B20" s="2" t="inlineStr">
-        <is>
-          <t>SPACE</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
+      <c r="B20" s="21" t="inlineStr">
+        <is>
+          <t>WHITESPACE/SPACE</t>
+        </is>
+      </c>
+      <c r="C20" s="21" t="inlineStr">
         <is>
           <t>空格</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="n">
+      <c r="A21" s="22" t="n">
         <v>4.0</v>
       </c>
-      <c r="B21" s="2" t="inlineStr">
+      <c r="B21" s="22" t="inlineStr">
         <is>
           <t>WORD/VAR</t>
         </is>
       </c>
-      <c r="C21" s="2" t="inlineStr">
+      <c r="C21" s="22" t="inlineStr">
         <is>
           <t>var</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="2" t="n">
+      <c r="A22" s="23" t="n">
         <v>4.0</v>
       </c>
-      <c r="B22" s="2" t="inlineStr">
-        <is>
-          <t>SPACE</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
+      <c r="B22" s="23" t="inlineStr">
+        <is>
+          <t>WHITESPACE/SPACE</t>
+        </is>
+      </c>
+      <c r="C22" s="23" t="inlineStr">
         <is>
           <t>空格</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="n">
+      <c r="A23" s="24" t="n">
         <v>4.0</v>
       </c>
-      <c r="B23" s="2" t="inlineStr">
+      <c r="B23" s="24" t="inlineStr">
         <is>
           <t>IDENTIFIER</t>
         </is>
       </c>
-      <c r="C23" s="2" t="inlineStr">
+      <c r="C23" s="24" t="inlineStr">
         <is>
           <t>t</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="n">
+      <c r="A24" s="25" t="n">
         <v>4.0</v>
       </c>
-      <c r="B24" s="2" t="inlineStr">
-        <is>
-          <t>SPACE</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
+      <c r="B24" s="25" t="inlineStr">
+        <is>
+          <t>WHITESPACE/SPACE</t>
+        </is>
+      </c>
+      <c r="C24" s="25" t="inlineStr">
         <is>
           <t>空格</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="n">
+      <c r="A25" s="26" t="n">
         <v>4.0</v>
       </c>
-      <c r="B25" s="2" t="inlineStr">
+      <c r="B25" s="26" t="inlineStr">
         <is>
           <t>IDENTIFIER</t>
         </is>
       </c>
-      <c r="C25" s="2" t="inlineStr">
+      <c r="C25" s="26" t="inlineStr">
         <is>
           <t>v1</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="2" t="n">
+      <c r="A26" s="27" t="n">
         <v>4.0</v>
       </c>
-      <c r="B26" s="2" t="inlineStr">
-        <is>
-          <t>SEMICOLON</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
+      <c r="B26" s="27" t="inlineStr">
+        <is>
+          <t>ENDDELIMITER/SEMICOLON</t>
+        </is>
+      </c>
+      <c r="C26" s="27" t="inlineStr">
         <is>
           <t>;</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="2" t="n">
+      <c r="A27" s="28" t="n">
         <v>5.0</v>
       </c>
-      <c r="B27" s="2" t="inlineStr">
-        <is>
-          <t>NEW_LINE</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
+      <c r="B27" s="28" t="inlineStr">
+        <is>
+          <t>WHITESPACE/NEW_LINE</t>
+        </is>
+      </c>
+      <c r="C27" s="28" t="inlineStr">
         <is>
           <t>\n</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="2" t="n">
+      <c r="A28" s="29" t="n">
         <v>5.0</v>
       </c>
-      <c r="B28" s="2" t="inlineStr">
-        <is>
-          <t>SPACE</t>
-        </is>
-      </c>
-      <c r="C28" s="2" t="inlineStr">
+      <c r="B28" s="29" t="inlineStr">
+        <is>
+          <t>WHITESPACE/SPACE</t>
+        </is>
+      </c>
+      <c r="C28" s="29" t="inlineStr">
         <is>
           <t>空格</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="2" t="n">
+      <c r="A29" s="30" t="n">
         <v>5.0</v>
       </c>
-      <c r="B29" s="2" t="inlineStr">
-        <is>
-          <t>SPACE</t>
-        </is>
-      </c>
-      <c r="C29" s="2" t="inlineStr">
+      <c r="B29" s="30" t="inlineStr">
+        <is>
+          <t>WHITESPACE/SPACE</t>
+        </is>
+      </c>
+      <c r="C29" s="30" t="inlineStr">
         <is>
           <t>空格</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="2" t="n">
+      <c r="A30" s="31" t="n">
         <v>5.0</v>
       </c>
-      <c r="B30" s="2" t="inlineStr">
-        <is>
-          <t>SPACE</t>
-        </is>
-      </c>
-      <c r="C30" s="2" t="inlineStr">
+      <c r="B30" s="31" t="inlineStr">
+        <is>
+          <t>WHITESPACE/SPACE</t>
+        </is>
+      </c>
+      <c r="C30" s="31" t="inlineStr">
         <is>
           <t>空格</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="2" t="n">
+      <c r="A31" s="32" t="n">
         <v>5.0</v>
       </c>
-      <c r="B31" s="2" t="inlineStr">
-        <is>
-          <t>SPACE</t>
-        </is>
-      </c>
-      <c r="C31" s="2" t="inlineStr">
+      <c r="B31" s="32" t="inlineStr">
+        <is>
+          <t>WHITESPACE/SPACE</t>
+        </is>
+      </c>
+      <c r="C31" s="32" t="inlineStr">
         <is>
           <t>空格</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="2" t="n">
+      <c r="A32" s="33" t="n">
         <v>5.0</v>
       </c>
-      <c r="B32" s="2" t="inlineStr">
+      <c r="B32" s="33" t="inlineStr">
         <is>
           <t>DATATYPE/CHAR</t>
         </is>
       </c>
-      <c r="C32" s="2" t="inlineStr">
+      <c r="C32" s="33" t="inlineStr">
         <is>
           <t>char</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="2" t="n">
+      <c r="A33" s="34" t="n">
         <v>5.0</v>
       </c>
-      <c r="B33" s="2" t="inlineStr">
-        <is>
-          <t>SPACE</t>
-        </is>
-      </c>
-      <c r="C33" s="2" t="inlineStr">
+      <c r="B33" s="34" t="inlineStr">
+        <is>
+          <t>WHITESPACE/SPACE</t>
+        </is>
+      </c>
+      <c r="C33" s="34" t="inlineStr">
         <is>
           <t>空格</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="2" t="n">
+      <c r="A34" s="35" t="n">
         <v>5.0</v>
       </c>
-      <c r="B34" s="2" t="inlineStr">
+      <c r="B34" s="35" t="inlineStr">
         <is>
           <t>IDENTIFIER</t>
         </is>
       </c>
-      <c r="C34" s="2" t="inlineStr">
+      <c r="C34" s="35" t="inlineStr">
         <is>
           <t>v2</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="2" t="n">
+      <c r="A35" s="36" t="n">
         <v>5.0</v>
       </c>
-      <c r="B35" s="2" t="inlineStr">
-        <is>
-          <t>SEMICOLON</t>
-        </is>
-      </c>
-      <c r="C35" s="2" t="inlineStr">
+      <c r="B35" s="36" t="inlineStr">
+        <is>
+          <t>ENDDELIMITER/SEMICOLON</t>
+        </is>
+      </c>
+      <c r="C35" s="36" t="inlineStr">
         <is>
           <t>;</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="2" t="n">
+      <c r="A36" s="37" t="n">
         <v>6.0</v>
       </c>
-      <c r="B36" s="2" t="inlineStr">
-        <is>
-          <t>NEW_LINE</t>
-        </is>
-      </c>
-      <c r="C36" s="2" t="inlineStr">
+      <c r="B36" s="37" t="inlineStr">
+        <is>
+          <t>WHITESPACE/NEW_LINE</t>
+        </is>
+      </c>
+      <c r="C36" s="37" t="inlineStr">
         <is>
           <t>\n</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="2" t="n">
+      <c r="A37" s="38" t="n">
         <v>7.0</v>
       </c>
-      <c r="B37" s="2" t="inlineStr">
+      <c r="B37" s="38" t="inlineStr">
         <is>
           <t>WORD/BEGIN</t>
         </is>
       </c>
-      <c r="C37" s="2" t="inlineStr">
+      <c r="C37" s="38" t="inlineStr">
         <is>
           <t>begin</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="2" t="n">
+      <c r="A38" s="39" t="n">
         <v>7.0</v>
       </c>
-      <c r="B38" s="2" t="inlineStr">
-        <is>
-          <t>NEW_LINE</t>
-        </is>
-      </c>
-      <c r="C38" s="2" t="inlineStr">
+      <c r="B38" s="39" t="inlineStr">
+        <is>
+          <t>WHITESPACE/NEW_LINE</t>
+        </is>
+      </c>
+      <c r="C38" s="39" t="inlineStr">
         <is>
           <t>\n</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="2" t="n">
+      <c r="A39" s="40" t="n">
         <v>7.0</v>
       </c>
-      <c r="B39" s="2" t="inlineStr">
-        <is>
-          <t>SPACE</t>
-        </is>
-      </c>
-      <c r="C39" s="2" t="inlineStr">
+      <c r="B39" s="40" t="inlineStr">
+        <is>
+          <t>WHITESPACE/SPACE</t>
+        </is>
+      </c>
+      <c r="C39" s="40" t="inlineStr">
         <is>
           <t>空格</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="2" t="n">
+      <c r="A40" s="41" t="n">
         <v>7.0</v>
       </c>
-      <c r="B40" s="2" t="inlineStr">
-        <is>
-          <t>SPACE</t>
-        </is>
-      </c>
-      <c r="C40" s="2" t="inlineStr">
+      <c r="B40" s="41" t="inlineStr">
+        <is>
+          <t>WHITESPACE/SPACE</t>
+        </is>
+      </c>
+      <c r="C40" s="41" t="inlineStr">
         <is>
           <t>空格</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="2" t="n">
+      <c r="A41" s="42" t="n">
         <v>7.0</v>
       </c>
-      <c r="B41" s="2" t="inlineStr">
-        <is>
-          <t>SPACE</t>
-        </is>
-      </c>
-      <c r="C41" s="2" t="inlineStr">
+      <c r="B41" s="42" t="inlineStr">
+        <is>
+          <t>WHITESPACE/SPACE</t>
+        </is>
+      </c>
+      <c r="C41" s="42" t="inlineStr">
         <is>
           <t>空格</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="2" t="n">
+      <c r="A42" s="43" t="n">
         <v>7.0</v>
       </c>
-      <c r="B42" s="2" t="inlineStr">
-        <is>
-          <t>SPACE</t>
-        </is>
-      </c>
-      <c r="C42" s="2" t="inlineStr">
+      <c r="B42" s="43" t="inlineStr">
+        <is>
+          <t>WHITESPACE/SPACE</t>
+        </is>
+      </c>
+      <c r="C42" s="43" t="inlineStr">
         <is>
           <t>空格</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="2" t="n">
+      <c r="A43" s="44" t="n">
         <v>7.0</v>
       </c>
-      <c r="B43" s="2" t="inlineStr">
+      <c r="B43" s="44" t="inlineStr">
         <is>
           <t>WORD/READ</t>
         </is>
       </c>
-      <c r="C43" s="2" t="inlineStr">
+      <c r="C43" s="44" t="inlineStr">
         <is>
           <t>read</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="2" t="n">
+      <c r="A44" s="45" t="n">
         <v>7.0</v>
       </c>
-      <c r="B44" s="2" t="inlineStr">
-        <is>
-          <t>L_PARENTHESIS</t>
-        </is>
-      </c>
-      <c r="C44" s="2" t="inlineStr">
+      <c r="B44" s="45" t="inlineStr">
+        <is>
+          <t>PAIRDELIMITER/L_PARENTHESIS</t>
+        </is>
+      </c>
+      <c r="C44" s="45" t="inlineStr">
         <is>
           <t>(</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="2" t="n">
+      <c r="A45" s="46" t="n">
         <v>7.0</v>
       </c>
-      <c r="B45" s="2" t="inlineStr">
+      <c r="B45" s="46" t="inlineStr">
         <is>
           <t>IDENTIFIER</t>
         </is>
       </c>
-      <c r="C45" s="2" t="inlineStr">
+      <c r="C45" s="46" t="inlineStr">
         <is>
           <t>v1</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="2" t="n">
+      <c r="A46" s="47" t="n">
         <v>7.0</v>
       </c>
-      <c r="B46" s="2" t="inlineStr">
-        <is>
-          <t>R_PARENTHESIS</t>
-        </is>
-      </c>
-      <c r="C46" s="2" t="inlineStr">
+      <c r="B46" s="47" t="inlineStr">
+        <is>
+          <t>PAIRDELIMITER/R_PARENTHESIS</t>
+        </is>
+      </c>
+      <c r="C46" s="47" t="inlineStr">
         <is>
           <t>)</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="2" t="n">
+      <c r="A47" s="48" t="n">
         <v>7.0</v>
       </c>
-      <c r="B47" s="2" t="inlineStr">
-        <is>
-          <t>SEMICOLON</t>
-        </is>
-      </c>
-      <c r="C47" s="2" t="inlineStr">
+      <c r="B47" s="48" t="inlineStr">
+        <is>
+          <t>ENDDELIMITER/SEMICOLON</t>
+        </is>
+      </c>
+      <c r="C47" s="48" t="inlineStr">
         <is>
           <t>;</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="2" t="n">
+      <c r="A48" s="49" t="n">
         <v>8.0</v>
       </c>
-      <c r="B48" s="2" t="inlineStr">
-        <is>
-          <t>NEW_LINE</t>
-        </is>
-      </c>
-      <c r="C48" s="2" t="inlineStr">
+      <c r="B48" s="49" t="inlineStr">
+        <is>
+          <t>WHITESPACE/NEW_LINE</t>
+        </is>
+      </c>
+      <c r="C48" s="49" t="inlineStr">
         <is>
           <t>\n</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="2" t="n">
+      <c r="A49" s="50" t="n">
         <v>8.0</v>
       </c>
-      <c r="B49" s="2" t="inlineStr">
-        <is>
-          <t>SPACE</t>
-        </is>
-      </c>
-      <c r="C49" s="2" t="inlineStr">
+      <c r="B49" s="50" t="inlineStr">
+        <is>
+          <t>WHITESPACE/SPACE</t>
+        </is>
+      </c>
+      <c r="C49" s="50" t="inlineStr">
         <is>
           <t>空格</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="2" t="n">
+      <c r="A50" s="51" t="n">
         <v>8.0</v>
       </c>
-      <c r="B50" s="2" t="inlineStr">
-        <is>
-          <t>SPACE</t>
-        </is>
-      </c>
-      <c r="C50" s="2" t="inlineStr">
+      <c r="B50" s="51" t="inlineStr">
+        <is>
+          <t>WHITESPACE/SPACE</t>
+        </is>
+      </c>
+      <c r="C50" s="51" t="inlineStr">
         <is>
           <t>空格</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="2" t="n">
+      <c r="A51" s="52" t="n">
         <v>8.0</v>
       </c>
-      <c r="B51" s="2" t="inlineStr">
-        <is>
-          <t>SPACE</t>
-        </is>
-      </c>
-      <c r="C51" s="2" t="inlineStr">
+      <c r="B51" s="52" t="inlineStr">
+        <is>
+          <t>WHITESPACE/SPACE</t>
+        </is>
+      </c>
+      <c r="C51" s="52" t="inlineStr">
         <is>
           <t>空格</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="2" t="n">
+      <c r="A52" s="53" t="n">
         <v>8.0</v>
       </c>
-      <c r="B52" s="2" t="inlineStr">
-        <is>
-          <t>SPACE</t>
-        </is>
-      </c>
-      <c r="C52" s="2" t="inlineStr">
+      <c r="B52" s="53" t="inlineStr">
+        <is>
+          <t>WHITESPACE/SPACE</t>
+        </is>
+      </c>
+      <c r="C52" s="53" t="inlineStr">
         <is>
           <t>空格</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="2" t="n">
+      <c r="A53" s="54" t="n">
         <v>8.0</v>
       </c>
-      <c r="B53" s="2" t="inlineStr">
+      <c r="B53" s="54" t="inlineStr">
         <is>
           <t>IDENTIFIER</t>
         </is>
       </c>
-      <c r="C53" s="2" t="inlineStr">
+      <c r="C53" s="54" t="inlineStr">
         <is>
           <t>v1</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="2" t="n">
+      <c r="A54" s="55" t="n">
         <v>8.0</v>
       </c>
-      <c r="B54" s="2" t="inlineStr">
-        <is>
-          <t>SPACE</t>
-        </is>
-      </c>
-      <c r="C54" s="2" t="inlineStr">
+      <c r="B54" s="55" t="inlineStr">
+        <is>
+          <t>WHITESPACE/SPACE</t>
+        </is>
+      </c>
+      <c r="C54" s="55" t="inlineStr">
         <is>
           <t>空格</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="2" t="n">
+      <c r="A55" s="56" t="n">
         <v>8.0</v>
       </c>
-      <c r="B55" s="2" t="inlineStr">
-        <is>
-          <t>ASSIGN</t>
-        </is>
-      </c>
-      <c r="C55" s="2" t="inlineStr">
+      <c r="B55" s="56" t="inlineStr">
+        <is>
+          <t>DOUBLECHARDELIMITER/ASSIGN</t>
+        </is>
+      </c>
+      <c r="C55" s="56" t="inlineStr">
         <is>
           <t>:=</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="2" t="n">
+      <c r="A56" s="57" t="n">
         <v>8.0</v>
       </c>
-      <c r="B56" s="2" t="inlineStr">
-        <is>
-          <t>SPACE</t>
-        </is>
-      </c>
-      <c r="C56" s="2" t="inlineStr">
+      <c r="B56" s="57" t="inlineStr">
+        <is>
+          <t>WHITESPACE/SPACE</t>
+        </is>
+      </c>
+      <c r="C56" s="57" t="inlineStr">
         <is>
           <t>空格</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="2" t="n">
+      <c r="A57" s="58" t="n">
         <v>8.0</v>
       </c>
-      <c r="B57" s="2" t="inlineStr">
+      <c r="B57" s="58" t="inlineStr">
         <is>
           <t>IDENTIFIER</t>
         </is>
       </c>
-      <c r="C57" s="2" t="inlineStr">
+      <c r="C57" s="58" t="inlineStr">
         <is>
           <t>v1</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="2" t="n">
+      <c r="A58" s="59" t="n">
         <v>8.0</v>
       </c>
-      <c r="B58" s="2" t="inlineStr">
-        <is>
-          <t>SPACE</t>
-        </is>
-      </c>
-      <c r="C58" s="2" t="inlineStr">
+      <c r="B58" s="59" t="inlineStr">
+        <is>
+          <t>WHITESPACE/SPACE</t>
+        </is>
+      </c>
+      <c r="C58" s="59" t="inlineStr">
         <is>
           <t>空格</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="2" t="n">
+      <c r="A59" s="60" t="n">
         <v>8.0</v>
       </c>
-      <c r="B59" s="2" t="inlineStr">
-        <is>
-          <t>PLUS</t>
-        </is>
-      </c>
-      <c r="C59" s="2" t="inlineStr">
+      <c r="B59" s="60" t="inlineStr">
+        <is>
+          <t>OPERATOR/PLUS</t>
+        </is>
+      </c>
+      <c r="C59" s="60" t="inlineStr">
         <is>
           <t>+</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="2" t="n">
+      <c r="A60" s="61" t="n">
         <v>8.0</v>
       </c>
-      <c r="B60" s="2" t="inlineStr">
-        <is>
-          <t>SPACE</t>
-        </is>
-      </c>
-      <c r="C60" s="2" t="inlineStr">
+      <c r="B60" s="61" t="inlineStr">
+        <is>
+          <t>WHITESPACE/SPACE</t>
+        </is>
+      </c>
+      <c r="C60" s="61" t="inlineStr">
         <is>
           <t>空格</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="2" t="n">
+      <c r="A61" s="62" t="n">
         <v>8.0</v>
       </c>
-      <c r="B61" s="2" t="inlineStr">
-        <is>
-          <t>UNSIGNED_INTEGER</t>
-        </is>
-      </c>
-      <c r="C61" s="2" t="inlineStr">
+      <c r="B61" s="62" t="inlineStr">
+        <is>
+          <t>CONSTANT/UNSIGNED_INTEGER</t>
+        </is>
+      </c>
+      <c r="C61" s="62" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="2" t="n">
+      <c r="A62" s="63" t="n">
         <v>8.0</v>
       </c>
-      <c r="B62" s="2" t="inlineStr">
-        <is>
-          <t>SEMICOLON</t>
-        </is>
-      </c>
-      <c r="C62" s="2" t="inlineStr">
+      <c r="B62" s="63" t="inlineStr">
+        <is>
+          <t>ENDDELIMITER/SEMICOLON</t>
+        </is>
+      </c>
+      <c r="C62" s="63" t="inlineStr">
         <is>
           <t>;</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="2" t="n">
+      <c r="A63" s="64" t="n">
         <v>9.0</v>
       </c>
-      <c r="B63" s="2" t="inlineStr">
-        <is>
-          <t>NEW_LINE</t>
-        </is>
-      </c>
-      <c r="C63" s="2" t="inlineStr">
+      <c r="B63" s="64" t="inlineStr">
+        <is>
+          <t>WHITESPACE/NEW_LINE</t>
+        </is>
+      </c>
+      <c r="C63" s="64" t="inlineStr">
         <is>
           <t>\n</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="2" t="n">
+      <c r="A64" s="65" t="n">
         <v>9.0</v>
       </c>
-      <c r="B64" s="2" t="inlineStr">
-        <is>
-          <t>SPACE</t>
-        </is>
-      </c>
-      <c r="C64" s="2" t="inlineStr">
+      <c r="B64" s="65" t="inlineStr">
+        <is>
+          <t>WHITESPACE/SPACE</t>
+        </is>
+      </c>
+      <c r="C64" s="65" t="inlineStr">
         <is>
           <t>空格</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="2" t="n">
+      <c r="A65" s="66" t="n">
         <v>9.0</v>
       </c>
-      <c r="B65" s="2" t="inlineStr">
-        <is>
-          <t>SPACE</t>
-        </is>
-      </c>
-      <c r="C65" s="2" t="inlineStr">
+      <c r="B65" s="66" t="inlineStr">
+        <is>
+          <t>WHITESPACE/SPACE</t>
+        </is>
+      </c>
+      <c r="C65" s="66" t="inlineStr">
         <is>
           <t>空格</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="2" t="n">
+      <c r="A66" s="67" t="n">
         <v>9.0</v>
       </c>
-      <c r="B66" s="2" t="inlineStr">
-        <is>
-          <t>SPACE</t>
-        </is>
-      </c>
-      <c r="C66" s="2" t="inlineStr">
+      <c r="B66" s="67" t="inlineStr">
+        <is>
+          <t>WHITESPACE/SPACE</t>
+        </is>
+      </c>
+      <c r="C66" s="67" t="inlineStr">
         <is>
           <t>空格</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="2" t="n">
+      <c r="A67" s="68" t="n">
         <v>9.0</v>
       </c>
-      <c r="B67" s="2" t="inlineStr">
-        <is>
-          <t>SPACE</t>
-        </is>
-      </c>
-      <c r="C67" s="2" t="inlineStr">
+      <c r="B67" s="68" t="inlineStr">
+        <is>
+          <t>WHITESPACE/SPACE</t>
+        </is>
+      </c>
+      <c r="C67" s="68" t="inlineStr">
         <is>
           <t>空格</t>
         </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="2" t="n">
+      <c r="A68" s="69" t="n">
         <v>9.0</v>
       </c>
-      <c r="B68" s="2" t="inlineStr">
+      <c r="B68" s="69" t="inlineStr">
         <is>
           <t>COMMENT</t>
         </is>
       </c>
-      <c r="C68" s="2" t="inlineStr">
+      <c r="C68" s="69" t="inlineStr">
         <is>
           <t>{write('a'')}</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="2" t="n">
+      <c r="A69" s="70" t="n">
         <v>10.0</v>
       </c>
-      <c r="B69" s="2" t="inlineStr">
-        <is>
-          <t>NEW_LINE</t>
-        </is>
-      </c>
-      <c r="C69" s="2" t="inlineStr">
+      <c r="B69" s="70" t="inlineStr">
+        <is>
+          <t>WHITESPACE/NEW_LINE</t>
+        </is>
+      </c>
+      <c r="C69" s="70" t="inlineStr">
         <is>
           <t>\n</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="2" t="n">
+      <c r="A70" s="71" t="n">
         <v>10.0</v>
       </c>
-      <c r="B70" s="2" t="inlineStr">
-        <is>
-          <t>SPACE</t>
-        </is>
-      </c>
-      <c r="C70" s="2" t="inlineStr">
+      <c r="B70" s="71" t="inlineStr">
+        <is>
+          <t>WHITESPACE/SPACE</t>
+        </is>
+      </c>
+      <c r="C70" s="71" t="inlineStr">
         <is>
           <t>空格</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="2" t="n">
+      <c r="A71" s="72" t="n">
         <v>10.0</v>
       </c>
-      <c r="B71" s="2" t="inlineStr">
-        <is>
-          <t>SPACE</t>
-        </is>
-      </c>
-      <c r="C71" s="2" t="inlineStr">
+      <c r="B71" s="72" t="inlineStr">
+        <is>
+          <t>WHITESPACE/SPACE</t>
+        </is>
+      </c>
+      <c r="C71" s="72" t="inlineStr">
         <is>
           <t>空格</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="2" t="n">
+      <c r="A72" s="73" t="n">
         <v>10.0</v>
       </c>
-      <c r="B72" s="2" t="inlineStr">
-        <is>
-          <t>SPACE</t>
-        </is>
-      </c>
-      <c r="C72" s="2" t="inlineStr">
+      <c r="B72" s="73" t="inlineStr">
+        <is>
+          <t>WHITESPACE/SPACE</t>
+        </is>
+      </c>
+      <c r="C72" s="73" t="inlineStr">
         <is>
           <t>空格</t>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="2" t="n">
+      <c r="A73" s="74" t="n">
         <v>10.0</v>
       </c>
-      <c r="B73" s="2" t="inlineStr">
-        <is>
-          <t>SPACE</t>
-        </is>
-      </c>
-      <c r="C73" s="2" t="inlineStr">
+      <c r="B73" s="74" t="inlineStr">
+        <is>
+          <t>WHITESPACE/SPACE</t>
+        </is>
+      </c>
+      <c r="C73" s="74" t="inlineStr">
         <is>
           <t>空格</t>
         </is>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="2" t="n">
+      <c r="A74" s="75" t="n">
         <v>10.0</v>
       </c>
-      <c r="B74" s="2" t="inlineStr">
+      <c r="B74" s="75" t="inlineStr">
         <is>
           <t>WORD/WRITE</t>
         </is>
       </c>
-      <c r="C74" s="2" t="inlineStr">
+      <c r="C74" s="75" t="inlineStr">
         <is>
           <t>write</t>
         </is>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="2" t="n">
+      <c r="A75" s="76" t="n">
         <v>10.0</v>
       </c>
-      <c r="B75" s="2" t="inlineStr">
-        <is>
-          <t>L_PARENTHESIS</t>
-        </is>
-      </c>
-      <c r="C75" s="2" t="inlineStr">
+      <c r="B75" s="76" t="inlineStr">
+        <is>
+          <t>PAIRDELIMITER/L_PARENTHESIS</t>
+        </is>
+      </c>
+      <c r="C75" s="76" t="inlineStr">
         <is>
           <t>(</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="2" t="n">
+      <c r="A76" s="77" t="n">
         <v>10.0</v>
       </c>
-      <c r="B76" s="2" t="inlineStr">
+      <c r="B76" s="77" t="inlineStr">
         <is>
           <t>IDENTIFIER</t>
         </is>
       </c>
-      <c r="C76" s="2" t="inlineStr">
+      <c r="C76" s="77" t="inlineStr">
         <is>
           <t>v1</t>
         </is>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="2" t="n">
+      <c r="A77" s="78" t="n">
         <v>10.0</v>
       </c>
-      <c r="B77" s="2" t="inlineStr">
-        <is>
-          <t>R_PARENTHESIS</t>
-        </is>
-      </c>
-      <c r="C77" s="2" t="inlineStr">
+      <c r="B77" s="78" t="inlineStr">
+        <is>
+          <t>PAIRDELIMITER/R_PARENTHESIS</t>
+        </is>
+      </c>
+      <c r="C77" s="78" t="inlineStr">
         <is>
           <t>)</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="2" t="n">
+      <c r="A78" s="79" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="B78" s="79" t="inlineStr">
+        <is>
+          <t>ENDDELIMITER/SEMICOLON</t>
+        </is>
+      </c>
+      <c r="C78" s="79" t="inlineStr">
+        <is>
+          <t>;</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="80" t="n">
         <v>11.0</v>
       </c>
-      <c r="B78" s="2" t="inlineStr">
-        <is>
-          <t>NEW_LINE</t>
-        </is>
-      </c>
-      <c r="C78" s="2" t="inlineStr">
+      <c r="B79" s="80" t="inlineStr">
+        <is>
+          <t>WHITESPACE/NEW_LINE</t>
+        </is>
+      </c>
+      <c r="C79" s="80" t="inlineStr">
         <is>
           <t>\n</t>
         </is>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" s="2" t="n">
+    <row r="80">
+      <c r="A80" s="81" t="n">
         <v>11.0</v>
       </c>
-      <c r="B79" s="2" t="inlineStr">
+      <c r="B80" s="81" t="inlineStr">
         <is>
           <t>WORD/END</t>
         </is>
       </c>
-      <c r="C79" s="2" t="inlineStr">
+      <c r="C80" s="81" t="inlineStr">
         <is>
           <t>end</t>
         </is>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" s="2" t="n">
+    <row r="81">
+      <c r="A81" s="82" t="n">
         <v>11.0</v>
       </c>
-      <c r="B80" s="2" t="inlineStr">
+      <c r="B81" s="82" t="inlineStr">
         <is>
           <t>PROGRAMEND</t>
         </is>
       </c>
-      <c r="C80" s="2" t="inlineStr">
+      <c r="C81" s="82" t="inlineStr">
         <is>
           <t>.</t>
         </is>

--- a/src/main/resources/default/defaultToken.xlsx
+++ b/src/main/resources/default/defaultToken.xlsx
@@ -33,7 +33,7 @@
     </font>
     <font>
       <name val="Calibri"/>
-      <sz val="11.0"/>
+      <sz val="10.0"/>
     </font>
   </fonts>
   <fills count="15">

--- a/src/main/resources/default/defaultToken.xlsx
+++ b/src/main/resources/default/defaultToken.xlsx
@@ -137,7 +137,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" wrapText="true" vertical="center"/>
@@ -189,7 +189,6 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
@@ -230,7 +229,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C81"/>
+  <dimension ref="A1:C80"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -930,16 +929,16 @@
     </row>
     <row r="47">
       <c r="A47" s="48" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="B47" s="48" t="inlineStr">
         <is>
-          <t>ENDDELIMITER/SEMICOLON</t>
+          <t>WHITESPACE/NEW_LINE</t>
         </is>
       </c>
       <c r="C47" s="48" t="inlineStr">
         <is>
-          <t>;</t>
+          <t>\n</t>
         </is>
       </c>
     </row>
@@ -949,12 +948,12 @@
       </c>
       <c r="B48" s="49" t="inlineStr">
         <is>
-          <t>WHITESPACE/NEW_LINE</t>
+          <t>WHITESPACE/SPACE</t>
         </is>
       </c>
       <c r="C48" s="49" t="inlineStr">
         <is>
-          <t>\n</t>
+          <t>空格</t>
         </is>
       </c>
     </row>
@@ -1009,12 +1008,12 @@
       </c>
       <c r="B52" s="53" t="inlineStr">
         <is>
-          <t>WHITESPACE/SPACE</t>
+          <t>IDENTIFIER</t>
         </is>
       </c>
       <c r="C52" s="53" t="inlineStr">
         <is>
-          <t>空格</t>
+          <t>v1</t>
         </is>
       </c>
     </row>
@@ -1024,12 +1023,12 @@
       </c>
       <c r="B53" s="54" t="inlineStr">
         <is>
-          <t>IDENTIFIER</t>
+          <t>WHITESPACE/SPACE</t>
         </is>
       </c>
       <c r="C53" s="54" t="inlineStr">
         <is>
-          <t>v1</t>
+          <t>空格</t>
         </is>
       </c>
     </row>
@@ -1039,12 +1038,12 @@
       </c>
       <c r="B54" s="55" t="inlineStr">
         <is>
-          <t>WHITESPACE/SPACE</t>
+          <t>DOUBLECHARDELIMITER/ASSIGN</t>
         </is>
       </c>
       <c r="C54" s="55" t="inlineStr">
         <is>
-          <t>空格</t>
+          <t>:=</t>
         </is>
       </c>
     </row>
@@ -1054,12 +1053,12 @@
       </c>
       <c r="B55" s="56" t="inlineStr">
         <is>
-          <t>DOUBLECHARDELIMITER/ASSIGN</t>
+          <t>WHITESPACE/SPACE</t>
         </is>
       </c>
       <c r="C55" s="56" t="inlineStr">
         <is>
-          <t>:=</t>
+          <t>空格</t>
         </is>
       </c>
     </row>
@@ -1069,12 +1068,12 @@
       </c>
       <c r="B56" s="57" t="inlineStr">
         <is>
-          <t>WHITESPACE/SPACE</t>
+          <t>IDENTIFIER</t>
         </is>
       </c>
       <c r="C56" s="57" t="inlineStr">
         <is>
-          <t>空格</t>
+          <t>v1</t>
         </is>
       </c>
     </row>
@@ -1084,12 +1083,12 @@
       </c>
       <c r="B57" s="58" t="inlineStr">
         <is>
-          <t>IDENTIFIER</t>
+          <t>WHITESPACE/SPACE</t>
         </is>
       </c>
       <c r="C57" s="58" t="inlineStr">
         <is>
-          <t>v1</t>
+          <t>空格</t>
         </is>
       </c>
     </row>
@@ -1099,12 +1098,12 @@
       </c>
       <c r="B58" s="59" t="inlineStr">
         <is>
-          <t>WHITESPACE/SPACE</t>
+          <t>OPERATOR/PLUS</t>
         </is>
       </c>
       <c r="C58" s="59" t="inlineStr">
         <is>
-          <t>空格</t>
+          <t>+</t>
         </is>
       </c>
     </row>
@@ -1114,12 +1113,12 @@
       </c>
       <c r="B59" s="60" t="inlineStr">
         <is>
-          <t>OPERATOR/PLUS</t>
+          <t>WHITESPACE/SPACE</t>
         </is>
       </c>
       <c r="C59" s="60" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>空格</t>
         </is>
       </c>
     </row>
@@ -1129,12 +1128,12 @@
       </c>
       <c r="B60" s="61" t="inlineStr">
         <is>
-          <t>WHITESPACE/SPACE</t>
+          <t>CONSTANT/UNSIGNED_INTEGER</t>
         </is>
       </c>
       <c r="C60" s="61" t="inlineStr">
         <is>
-          <t>空格</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -1144,27 +1143,27 @@
       </c>
       <c r="B61" s="62" t="inlineStr">
         <is>
-          <t>CONSTANT/UNSIGNED_INTEGER</t>
+          <t>ENDDELIMITER/SEMICOLON</t>
         </is>
       </c>
       <c r="C61" s="62" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>;</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="63" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="B62" s="63" t="inlineStr">
         <is>
-          <t>ENDDELIMITER/SEMICOLON</t>
+          <t>WHITESPACE/NEW_LINE</t>
         </is>
       </c>
       <c r="C62" s="63" t="inlineStr">
         <is>
-          <t>;</t>
+          <t>\n</t>
         </is>
       </c>
     </row>
@@ -1174,12 +1173,12 @@
       </c>
       <c r="B63" s="64" t="inlineStr">
         <is>
-          <t>WHITESPACE/NEW_LINE</t>
+          <t>WHITESPACE/SPACE</t>
         </is>
       </c>
       <c r="C63" s="64" t="inlineStr">
         <is>
-          <t>\n</t>
+          <t>空格</t>
         </is>
       </c>
     </row>
@@ -1234,27 +1233,27 @@
       </c>
       <c r="B67" s="68" t="inlineStr">
         <is>
-          <t>WHITESPACE/SPACE</t>
+          <t>COMMENT</t>
         </is>
       </c>
       <c r="C67" s="68" t="inlineStr">
         <is>
-          <t>空格</t>
+          <t>{write('a'')}</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="69" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="B68" s="69" t="inlineStr">
         <is>
-          <t>COMMENT</t>
+          <t>WHITESPACE/NEW_LINE</t>
         </is>
       </c>
       <c r="C68" s="69" t="inlineStr">
         <is>
-          <t>{write('a'')}</t>
+          <t>\n</t>
         </is>
       </c>
     </row>
@@ -1264,12 +1263,12 @@
       </c>
       <c r="B69" s="70" t="inlineStr">
         <is>
-          <t>WHITESPACE/NEW_LINE</t>
+          <t>WHITESPACE/SPACE</t>
         </is>
       </c>
       <c r="C69" s="70" t="inlineStr">
         <is>
-          <t>\n</t>
+          <t>空格</t>
         </is>
       </c>
     </row>
@@ -1324,12 +1323,12 @@
       </c>
       <c r="B73" s="74" t="inlineStr">
         <is>
-          <t>WHITESPACE/SPACE</t>
+          <t>WORD/WRITE</t>
         </is>
       </c>
       <c r="C73" s="74" t="inlineStr">
         <is>
-          <t>空格</t>
+          <t>write</t>
         </is>
       </c>
     </row>
@@ -1339,12 +1338,12 @@
       </c>
       <c r="B74" s="75" t="inlineStr">
         <is>
-          <t>WORD/WRITE</t>
+          <t>PAIRDELIMITER/L_PARENTHESIS</t>
         </is>
       </c>
       <c r="C74" s="75" t="inlineStr">
         <is>
-          <t>write</t>
+          <t>(</t>
         </is>
       </c>
     </row>
@@ -1354,12 +1353,12 @@
       </c>
       <c r="B75" s="76" t="inlineStr">
         <is>
-          <t>PAIRDELIMITER/L_PARENTHESIS</t>
+          <t>IDENTIFIER</t>
         </is>
       </c>
       <c r="C75" s="76" t="inlineStr">
         <is>
-          <t>(</t>
+          <t>v1</t>
         </is>
       </c>
     </row>
@@ -1369,12 +1368,12 @@
       </c>
       <c r="B76" s="77" t="inlineStr">
         <is>
-          <t>IDENTIFIER</t>
+          <t>PAIRDELIMITER/R_PARENTHESIS</t>
         </is>
       </c>
       <c r="C76" s="77" t="inlineStr">
         <is>
-          <t>v1</t>
+          <t>)</t>
         </is>
       </c>
     </row>
@@ -1384,27 +1383,27 @@
       </c>
       <c r="B77" s="78" t="inlineStr">
         <is>
-          <t>PAIRDELIMITER/R_PARENTHESIS</t>
+          <t>ENDDELIMITER/SEMICOLON</t>
         </is>
       </c>
       <c r="C77" s="78" t="inlineStr">
         <is>
-          <t>)</t>
+          <t>;</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="79" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="B78" s="79" t="inlineStr">
         <is>
-          <t>ENDDELIMITER/SEMICOLON</t>
+          <t>WHITESPACE/NEW_LINE</t>
         </is>
       </c>
       <c r="C78" s="79" t="inlineStr">
         <is>
-          <t>;</t>
+          <t>\n</t>
         </is>
       </c>
     </row>
@@ -1414,12 +1413,12 @@
       </c>
       <c r="B79" s="80" t="inlineStr">
         <is>
-          <t>WHITESPACE/NEW_LINE</t>
+          <t>WORD/END</t>
         </is>
       </c>
       <c r="C79" s="80" t="inlineStr">
         <is>
-          <t>\n</t>
+          <t>end</t>
         </is>
       </c>
     </row>
@@ -1429,25 +1428,10 @@
       </c>
       <c r="B80" s="81" t="inlineStr">
         <is>
-          <t>WORD/END</t>
+          <t>PROGRAMEND</t>
         </is>
       </c>
       <c r="C80" s="81" t="inlineStr">
-        <is>
-          <t>end</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="82" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="B81" s="82" t="inlineStr">
-        <is>
-          <t>PROGRAMEND</t>
-        </is>
-      </c>
-      <c r="C81" s="82" t="inlineStr">
         <is>
           <t>.</t>
         </is>

--- a/src/main/resources/default/defaultToken.xlsx
+++ b/src/main/resources/default/defaultToken.xlsx
@@ -137,7 +137,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" wrapText="true" vertical="center"/>
@@ -189,6 +189,7 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
@@ -229,7 +230,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C80"/>
+  <dimension ref="A1:C81"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -929,16 +930,16 @@
     </row>
     <row r="47">
       <c r="A47" s="48" t="n">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="B47" s="48" t="inlineStr">
         <is>
-          <t>WHITESPACE/NEW_LINE</t>
+          <t>ENDDELIMITER/SEMICOLON</t>
         </is>
       </c>
       <c r="C47" s="48" t="inlineStr">
         <is>
-          <t>\n</t>
+          <t>;</t>
         </is>
       </c>
     </row>
@@ -948,12 +949,12 @@
       </c>
       <c r="B48" s="49" t="inlineStr">
         <is>
-          <t>WHITESPACE/SPACE</t>
+          <t>WHITESPACE/NEW_LINE</t>
         </is>
       </c>
       <c r="C48" s="49" t="inlineStr">
         <is>
-          <t>空格</t>
+          <t>\n</t>
         </is>
       </c>
     </row>
@@ -1008,12 +1009,12 @@
       </c>
       <c r="B52" s="53" t="inlineStr">
         <is>
-          <t>IDENTIFIER</t>
+          <t>WHITESPACE/SPACE</t>
         </is>
       </c>
       <c r="C52" s="53" t="inlineStr">
         <is>
-          <t>v1</t>
+          <t>空格</t>
         </is>
       </c>
     </row>
@@ -1023,12 +1024,12 @@
       </c>
       <c r="B53" s="54" t="inlineStr">
         <is>
-          <t>WHITESPACE/SPACE</t>
+          <t>IDENTIFIER</t>
         </is>
       </c>
       <c r="C53" s="54" t="inlineStr">
         <is>
-          <t>空格</t>
+          <t>v1</t>
         </is>
       </c>
     </row>
@@ -1038,12 +1039,12 @@
       </c>
       <c r="B54" s="55" t="inlineStr">
         <is>
-          <t>DOUBLECHARDELIMITER/ASSIGN</t>
+          <t>WHITESPACE/SPACE</t>
         </is>
       </c>
       <c r="C54" s="55" t="inlineStr">
         <is>
-          <t>:=</t>
+          <t>空格</t>
         </is>
       </c>
     </row>
@@ -1053,12 +1054,12 @@
       </c>
       <c r="B55" s="56" t="inlineStr">
         <is>
-          <t>WHITESPACE/SPACE</t>
+          <t>DOUBLECHARDELIMITER/ASSIGN</t>
         </is>
       </c>
       <c r="C55" s="56" t="inlineStr">
         <is>
-          <t>空格</t>
+          <t>:=</t>
         </is>
       </c>
     </row>
@@ -1068,12 +1069,12 @@
       </c>
       <c r="B56" s="57" t="inlineStr">
         <is>
-          <t>IDENTIFIER</t>
+          <t>WHITESPACE/SPACE</t>
         </is>
       </c>
       <c r="C56" s="57" t="inlineStr">
         <is>
-          <t>v1</t>
+          <t>空格</t>
         </is>
       </c>
     </row>
@@ -1083,12 +1084,12 @@
       </c>
       <c r="B57" s="58" t="inlineStr">
         <is>
-          <t>WHITESPACE/SPACE</t>
+          <t>IDENTIFIER</t>
         </is>
       </c>
       <c r="C57" s="58" t="inlineStr">
         <is>
-          <t>空格</t>
+          <t>v1</t>
         </is>
       </c>
     </row>
@@ -1098,12 +1099,12 @@
       </c>
       <c r="B58" s="59" t="inlineStr">
         <is>
-          <t>OPERATOR/PLUS</t>
+          <t>WHITESPACE/SPACE</t>
         </is>
       </c>
       <c r="C58" s="59" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>空格</t>
         </is>
       </c>
     </row>
@@ -1113,12 +1114,12 @@
       </c>
       <c r="B59" s="60" t="inlineStr">
         <is>
-          <t>WHITESPACE/SPACE</t>
+          <t>OPERATOR/PLUS</t>
         </is>
       </c>
       <c r="C59" s="60" t="inlineStr">
         <is>
-          <t>空格</t>
+          <t>+</t>
         </is>
       </c>
     </row>
@@ -1128,12 +1129,12 @@
       </c>
       <c r="B60" s="61" t="inlineStr">
         <is>
-          <t>CONSTANT/UNSIGNED_INTEGER</t>
+          <t>WHITESPACE/SPACE</t>
         </is>
       </c>
       <c r="C60" s="61" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>空格</t>
         </is>
       </c>
     </row>
@@ -1143,27 +1144,27 @@
       </c>
       <c r="B61" s="62" t="inlineStr">
         <is>
-          <t>ENDDELIMITER/SEMICOLON</t>
+          <t>CONSTANT/UNSIGNED_INTEGER</t>
         </is>
       </c>
       <c r="C61" s="62" t="inlineStr">
         <is>
-          <t>;</t>
+          <t>10</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="63" t="n">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
       <c r="B62" s="63" t="inlineStr">
         <is>
-          <t>WHITESPACE/NEW_LINE</t>
+          <t>ENDDELIMITER/SEMICOLON</t>
         </is>
       </c>
       <c r="C62" s="63" t="inlineStr">
         <is>
-          <t>\n</t>
+          <t>;</t>
         </is>
       </c>
     </row>
@@ -1173,12 +1174,12 @@
       </c>
       <c r="B63" s="64" t="inlineStr">
         <is>
-          <t>WHITESPACE/SPACE</t>
+          <t>WHITESPACE/NEW_LINE</t>
         </is>
       </c>
       <c r="C63" s="64" t="inlineStr">
         <is>
-          <t>空格</t>
+          <t>\n</t>
         </is>
       </c>
     </row>
@@ -1233,27 +1234,27 @@
       </c>
       <c r="B67" s="68" t="inlineStr">
         <is>
-          <t>COMMENT</t>
+          <t>WHITESPACE/SPACE</t>
         </is>
       </c>
       <c r="C67" s="68" t="inlineStr">
         <is>
-          <t>{write('a'')}</t>
+          <t>空格</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="69" t="n">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
       <c r="B68" s="69" t="inlineStr">
         <is>
-          <t>WHITESPACE/NEW_LINE</t>
+          <t>COMMENT</t>
         </is>
       </c>
       <c r="C68" s="69" t="inlineStr">
         <is>
-          <t>\n</t>
+          <t>{write('a'')}</t>
         </is>
       </c>
     </row>
@@ -1263,12 +1264,12 @@
       </c>
       <c r="B69" s="70" t="inlineStr">
         <is>
-          <t>WHITESPACE/SPACE</t>
+          <t>WHITESPACE/NEW_LINE</t>
         </is>
       </c>
       <c r="C69" s="70" t="inlineStr">
         <is>
-          <t>空格</t>
+          <t>\n</t>
         </is>
       </c>
     </row>
@@ -1323,12 +1324,12 @@
       </c>
       <c r="B73" s="74" t="inlineStr">
         <is>
-          <t>WORD/WRITE</t>
+          <t>WHITESPACE/SPACE</t>
         </is>
       </c>
       <c r="C73" s="74" t="inlineStr">
         <is>
-          <t>write</t>
+          <t>空格</t>
         </is>
       </c>
     </row>
@@ -1338,12 +1339,12 @@
       </c>
       <c r="B74" s="75" t="inlineStr">
         <is>
-          <t>PAIRDELIMITER/L_PARENTHESIS</t>
+          <t>WORD/WRITE</t>
         </is>
       </c>
       <c r="C74" s="75" t="inlineStr">
         <is>
-          <t>(</t>
+          <t>write</t>
         </is>
       </c>
     </row>
@@ -1353,12 +1354,12 @@
       </c>
       <c r="B75" s="76" t="inlineStr">
         <is>
-          <t>IDENTIFIER</t>
+          <t>PAIRDELIMITER/L_PARENTHESIS</t>
         </is>
       </c>
       <c r="C75" s="76" t="inlineStr">
         <is>
-          <t>v1</t>
+          <t>(</t>
         </is>
       </c>
     </row>
@@ -1368,12 +1369,12 @@
       </c>
       <c r="B76" s="77" t="inlineStr">
         <is>
-          <t>PAIRDELIMITER/R_PARENTHESIS</t>
+          <t>IDENTIFIER</t>
         </is>
       </c>
       <c r="C76" s="77" t="inlineStr">
         <is>
-          <t>)</t>
+          <t>v1</t>
         </is>
       </c>
     </row>
@@ -1383,27 +1384,27 @@
       </c>
       <c r="B77" s="78" t="inlineStr">
         <is>
-          <t>ENDDELIMITER/SEMICOLON</t>
+          <t>PAIRDELIMITER/R_PARENTHESIS</t>
         </is>
       </c>
       <c r="C77" s="78" t="inlineStr">
         <is>
-          <t>;</t>
+          <t>)</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="79" t="n">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
       <c r="B78" s="79" t="inlineStr">
         <is>
-          <t>WHITESPACE/NEW_LINE</t>
+          <t>ENDDELIMITER/SEMICOLON</t>
         </is>
       </c>
       <c r="C78" s="79" t="inlineStr">
         <is>
-          <t>\n</t>
+          <t>;</t>
         </is>
       </c>
     </row>
@@ -1413,12 +1414,12 @@
       </c>
       <c r="B79" s="80" t="inlineStr">
         <is>
-          <t>WORD/END</t>
+          <t>WHITESPACE/NEW_LINE</t>
         </is>
       </c>
       <c r="C79" s="80" t="inlineStr">
         <is>
-          <t>end</t>
+          <t>\n</t>
         </is>
       </c>
     </row>
@@ -1428,10 +1429,25 @@
       </c>
       <c r="B80" s="81" t="inlineStr">
         <is>
+          <t>WORD/END</t>
+        </is>
+      </c>
+      <c r="C80" s="81" t="inlineStr">
+        <is>
+          <t>end</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="82" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="B81" s="82" t="inlineStr">
+        <is>
           <t>PROGRAMEND</t>
         </is>
       </c>
-      <c r="C80" s="81" t="inlineStr">
+      <c r="C81" s="82" t="inlineStr">
         <is>
           <t>.</t>
         </is>
